--- a/registration_data.xlsx
+++ b/registration_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u1133824\Documents\GitHub\SAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F22F552-3DB8-4C32-861F-03D7BCE584D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265E2517-2581-4A38-A7CA-679C8F6974A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="remove_na" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="130">
   <si>
     <t>PhD Student</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>Research School of Finance, Actuarial Studies and Statistics</t>
+  </si>
+  <si>
+    <t>College of Health and Medicine</t>
   </si>
 </sst>
 </file>
@@ -765,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA73DDD8-F4F4-437E-8F15-35FEE3234D01}">
   <dimension ref="A1:C222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1051,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1521,7 +1524,7 @@
         <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,7 +1601,7 @@
         <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1884,7 +1887,7 @@
         <v>70</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2203,7 +2206,7 @@
         <v>79</v>
       </c>
       <c r="C130" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2280,7 +2283,7 @@
         <v>83</v>
       </c>
       <c r="C137" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2423,7 +2426,7 @@
         <v>87</v>
       </c>
       <c r="C150" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2511,7 +2514,7 @@
         <v>92</v>
       </c>
       <c r="C158" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
